--- a/Accounts-Schedules/تدريب 30-6-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 30-6-2025 تجمع.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>Below is the list of trainees scheduled for the Training at Talabat on Monday, June 30th, from 11 AM to 8 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -238,6 +238,12 @@
     <t>الخلفاوي</t>
   </si>
   <si>
+    <t>Roxy</t>
+  </si>
+  <si>
+    <t>Salma Ahmed Taima</t>
+  </si>
+  <si>
     <t>الاثنين 30 الساعة 11 ص الي 8 م</t>
   </si>
   <si>
@@ -329,6 +335,12 @@
   </si>
   <si>
     <t>جيسكار جوزيف مقار</t>
+  </si>
+  <si>
+    <t>سلمى احمد طعيمة</t>
+  </si>
+  <si>
+    <t>روكسي العبودي</t>
   </si>
 </sst>
 </file>
@@ -343,7 +355,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +391,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -390,13 +415,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -543,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +594,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -767,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -848,6 +872,51 @@
       </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -954,70 +1023,67 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,74 +1098,77 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1114,6 +1183,9 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,19 +1221,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,153 +1585,153 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="19"/>
+      <c r="A3" s="25"/>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="25"/>
     </row>
     <row r="5" ht="16.25" spans="1:1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="29">
         <v>1009067536</v>
       </c>
     </row>
     <row r="8" ht="50.75" spans="1:3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="29">
         <v>1023832699</v>
       </c>
     </row>
     <row r="9" ht="25.75" spans="1:3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="29">
         <v>1001240626</v>
       </c>
     </row>
     <row r="10" ht="25.75" spans="1:3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="29">
         <v>1066748788</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="31">
         <v>1118007363</v>
       </c>
     </row>
     <row r="12" ht="38.25" spans="1:3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="29">
         <v>1006296446</v>
       </c>
     </row>
     <row r="13" ht="38.25" spans="1:3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="29">
         <v>1092658917</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="29">
         <v>1024295852</v>
       </c>
     </row>
     <row r="15" ht="50.75" spans="1:3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="29">
         <v>1023627600</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="29">
         <v>1146650300</v>
       </c>
     </row>
@@ -1657,314 +1744,337 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="25.75" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" ht="50.75" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="14">
         <v>1009067536</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <v>1023832699</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <v>1001240626</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" ht="50.75" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>1066748788</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" ht="50.75" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>1118007363</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>1006296446</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="50.75" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>1092658917</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" ht="50.75" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>1024295852</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" ht="50.75" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" ht="50.75" spans="1:5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="14">
         <v>1023627600</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>1146650300</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="26.75" spans="1:4">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>1017563020</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" ht="26.75" spans="1:4">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>1101473242</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" ht="26.75" spans="1:4">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="16">
         <v>1201433368</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" ht="26.75" spans="1:4">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>1127558708</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:4">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>1270656476</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" ht="39.75" spans="1:4">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>1002996912</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" ht="26.75" spans="1:4">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="16">
         <v>1096167363</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25"/>
+    <row r="22" ht="15.25" spans="1:3">
+      <c r="A22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" ht="39.75" spans="1:3">
+      <c r="A23" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1032446401</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +2089,7 @@
   <dimension ref="B1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B3" sqref="B3:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1996,34 +2106,34 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -2037,16 +2147,16 @@
       <c r="D3" s="5">
         <v>1023832699</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2060,16 +2170,16 @@
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2083,16 +2193,16 @@
       <c r="D5" s="5">
         <v>1006296446</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2106,16 +2216,16 @@
       <c r="D6" s="5">
         <v>1024295852</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2129,16 +2239,16 @@
       <c r="D7" s="5">
         <v>1127558708</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2152,16 +2262,16 @@
       <c r="D8" s="5">
         <v>1201433368</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2175,16 +2285,16 @@
       <c r="D9" s="5">
         <v>1001240626</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2198,16 +2308,16 @@
       <c r="D10" s="5">
         <v>1118007363</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2221,16 +2331,16 @@
       <c r="D11" s="5">
         <v>1023627600</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2244,16 +2354,16 @@
       <c r="D12" s="5">
         <v>1009067536</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2267,16 +2377,16 @@
       <c r="D13" s="5">
         <v>1066748788</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2290,16 +2400,16 @@
       <c r="D14" s="5">
         <v>1096167363</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2313,16 +2423,16 @@
       <c r="D15" s="5">
         <v>1017563020</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2336,16 +2446,16 @@
       <c r="D16" s="5">
         <v>1146650300</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="E16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2359,16 +2469,16 @@
       <c r="D17" s="5">
         <v>1101473242</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2382,16 +2492,16 @@
       <c r="D18" s="5">
         <v>1092658917</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="E18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2405,16 +2515,16 @@
       <c r="D19" s="5">
         <v>1270656476</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2428,249 +2538,265 @@
       <c r="D20" s="5">
         <v>1002996912</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="4:8">
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1032446401</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" spans="4:8">
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="4:8">
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="4:8">
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="4:8">
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="4:8">
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="4:8">
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="4:8">
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="4:8">
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="4:8">
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="4:8">
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="4:8">
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="4:8">
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="4:8">
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="4:8">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="4:8">
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="4:8">
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="4:8">
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="4:8">
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="4:8">
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="4:8">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="4:8">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="4:8">
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="4:8">
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="4:8">
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="4:8">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="4:8">
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="4:8">
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="4:8">
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="4:8">
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="4:8">
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="4:8">
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
     </row>
   </sheetData>
   <sortState ref="D3:I20">
